--- a/Docs/Roadmap.xlsx
+++ b/Docs/Roadmap.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Название</t>
   </si>
@@ -27,33 +27,21 @@
     <t>Что будет</t>
   </si>
   <si>
-    <t>Как выглядит</t>
-  </si>
-  <si>
     <t>Спринт 1 - ""</t>
   </si>
   <si>
     <t>хостинг, разделение на роли, авторизация</t>
   </si>
   <si>
-    <t>Можно будет зарегистрироваться(создать пользователя), войти как пользователь или админ(будет 1)</t>
-  </si>
-  <si>
     <t>Колчин Илья</t>
   </si>
   <si>
     <t>Спринт 2 - ""</t>
   </si>
   <si>
-    <t>режим администратора, каталог книг</t>
-  </si>
-  <si>
     <t>Спринт 3 - ""</t>
   </si>
   <si>
-    <t>карточки книг, рейтинг книг</t>
-  </si>
-  <si>
     <t>80% функционала, готов конечный дизайн</t>
   </si>
   <si>
@@ -66,38 +54,74 @@
     <t>весь функционал</t>
   </si>
   <si>
-    <t>Спринт 6 - "Сдача"</t>
-  </si>
-  <si>
-    <t>Зашита проекта</t>
-  </si>
-  <si>
-    <t>Администратор и пользователь добавляет книги, администратор может редактировать профиль пользователя, пользователи имеют свои каталоги книг</t>
-  </si>
-  <si>
-    <t>Можно добавлять книги, заносить их к себе в список</t>
-  </si>
-  <si>
-    <t>Можно найти книгу</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> В карточке можно оставить комментарий и поставить оценку</t>
-  </si>
-  <si>
-    <t>Пользователь ставит оценки книгам, пишет комментарии</t>
-  </si>
-  <si>
-    <t>Пользователь может брать книги и возвращать(владелец отмечает что книга возвращена)</t>
-  </si>
-  <si>
-    <t>Администратор может редактировать профиль пользователя, удалять или добавлять пользователя</t>
+    <t>Есть страница с книгами</t>
+  </si>
+  <si>
+    <t>база книг и пользователей</t>
+  </si>
+  <si>
+    <t>Админ может посмотреть список пользователей.</t>
+  </si>
+  <si>
+    <t>сделано вовремя</t>
+  </si>
+  <si>
+    <t>сделано с опозданием</t>
+  </si>
+  <si>
+    <t>Спринт 6 - ""</t>
+  </si>
+  <si>
+    <t>Спринт 7 - ""</t>
+  </si>
+  <si>
+    <t>Спринт 8 - ""</t>
+  </si>
+  <si>
+    <t>Спринт 9 - ""</t>
+  </si>
+  <si>
+    <t>Сдача проекта</t>
+  </si>
+  <si>
+    <t>структура БД</t>
+  </si>
+  <si>
+    <t>БД заявок, взятых книг, сообщений пользователей</t>
+  </si>
+  <si>
+    <t>Будут заготовки для всех окон</t>
+  </si>
+  <si>
+    <t>поиск книги</t>
+  </si>
+  <si>
+    <t>можно найти книгу</t>
+  </si>
+  <si>
+    <t>можно забронировать книгу</t>
+  </si>
+  <si>
+    <t>пользователь может редактировать список "Взятых" и "Отданных" книг</t>
+  </si>
+  <si>
+    <t>основной job</t>
+  </si>
+  <si>
+    <t>Полноценная админка(редактирование списка пользователей и карточек книг)</t>
+  </si>
+  <si>
+    <t>Пользователи могут писать друг другу сообщения, исправления замечаний и доделывание того, что не успел</t>
+  </si>
+  <si>
+    <t>исправления замечаний и доделывание того, что не успел</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,13 +169,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <i/>
-      <sz val="12"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
@@ -166,7 +183,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,8 +220,20 @@
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -284,48 +313,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
         <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
@@ -337,15 +338,21 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -356,7 +363,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -373,25 +380,10 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -403,41 +395,25 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -736,8 +712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -753,410 +729,388 @@
     <col min="10" max="10" width="20.7109375" customWidth="1"/>
     <col min="11" max="11" width="18.28515625" customWidth="1"/>
     <col min="12" max="13" width="18.5703125" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" thickTop="1" thickBot="1">
+        <v>17</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>43018</v>
+        <v>43040</v>
       </c>
       <c r="C2" s="4">
-        <v>43040</v>
+        <v>43047</v>
       </c>
       <c r="D2" s="4">
         <v>43054</v>
       </c>
       <c r="E2" s="4">
-        <v>43070</v>
+        <v>43061</v>
       </c>
       <c r="F2" s="4">
-        <v>43084</v>
+        <v>43068</v>
       </c>
       <c r="G2" s="4">
-        <v>43094</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="45">
+        <v>43075</v>
+      </c>
+      <c r="H2" s="4">
+        <v>43082</v>
+      </c>
+      <c r="I2" s="4">
+        <v>43089</v>
+      </c>
+      <c r="J2" s="4">
+        <v>43096</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="60">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="120.75">
+      <c r="A4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" spans="1:10" ht="51.75">
+      <c r="A5" s="19"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="D5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" spans="1:10" ht="17.25">
+      <c r="A6" s="20"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="105">
-      <c r="A4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:7" ht="51.75">
-      <c r="A5" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="1:7" ht="60">
-      <c r="A6" s="26"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="1:7" ht="17.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="17"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="19"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="17"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="21"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="17"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="21"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="17"/>
-    </row>
-    <row r="14" spans="1:7" ht="17.25">
-      <c r="A14" s="28"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="17"/>
-    </row>
-    <row r="15" spans="1:7" ht="17.25">
-      <c r="A15" s="28"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="17"/>
-    </row>
-    <row r="16" spans="1:7" ht="17.25">
-      <c r="A16" s="28"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="17"/>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="15"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A14:A16"/>
+  <mergeCells count="1">
+    <mergeCell ref="A4:A6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Docs/Roadmap.xlsx
+++ b/Docs/Roadmap.xlsx
@@ -713,7 +713,7 @@
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Docs/Roadmap.xlsx
+++ b/Docs/Roadmap.xlsx
@@ -363,7 +363,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -396,9 +396,6 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
@@ -713,7 +710,7 @@
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -827,11 +824,11 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="120.75">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="17" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="13"/>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="13" t="s">
@@ -855,12 +852,12 @@
       <c r="J4" s="13"/>
     </row>
     <row r="5" spans="1:10" ht="51.75">
-      <c r="A5" s="19"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="13"/>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="13" t="s">
@@ -873,7 +870,7 @@
       <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:10" ht="17.25">
-      <c r="A6" s="20"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -885,12 +882,12 @@
       <c r="J6" s="13"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="12"/>

--- a/Docs/Roadmap.xlsx
+++ b/Docs/Roadmap.xlsx
@@ -183,7 +183,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -232,6 +232,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -363,7 +369,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -411,6 +417,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -710,7 +719,7 @@
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -803,7 +812,7 @@
       <c r="C3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>22</v>
       </c>
       <c r="E3" s="6" t="s">
@@ -831,7 +840,7 @@
       <c r="C4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="16" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="13" t="s">
@@ -857,7 +866,7 @@
       <c r="C5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="20" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="13" t="s">

--- a/Docs/Roadmap.xlsx
+++ b/Docs/Roadmap.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Название</t>
   </si>
@@ -63,12 +63,6 @@
     <t>Админ может посмотреть список пользователей.</t>
   </si>
   <si>
-    <t>сделано вовремя</t>
-  </si>
-  <si>
-    <t>сделано с опозданием</t>
-  </si>
-  <si>
     <t>Спринт 6 - ""</t>
   </si>
   <si>
@@ -115,6 +109,36 @@
   </si>
   <si>
     <t>исправления замечаний и доделывание того, что не успел</t>
+  </si>
+  <si>
+    <t>сделано</t>
+  </si>
+  <si>
+    <t>сделано не полностью</t>
+  </si>
+  <si>
+    <t>не сделано</t>
+  </si>
+  <si>
+    <t>13.11-19.11</t>
+  </si>
+  <si>
+    <t>20.11-26.11</t>
+  </si>
+  <si>
+    <t>27.11-03.12</t>
+  </si>
+  <si>
+    <t>04.12-10.12</t>
+  </si>
+  <si>
+    <t>11.12-17.12</t>
+  </si>
+  <si>
+    <t>18.12-24.12</t>
+  </si>
+  <si>
+    <t>25.12-31.12</t>
   </si>
 </sst>
 </file>
@@ -183,7 +207,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -238,6 +262,12 @@
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -369,7 +399,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -409,6 +439,9 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -418,9 +451,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="TableStyleLight1" xfId="1"/>
@@ -719,7 +750,7 @@
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -758,16 +789,16 @@
         <v>10</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -780,26 +811,26 @@
       <c r="C2" s="4">
         <v>43047</v>
       </c>
-      <c r="D2" s="4">
-        <v>43054</v>
-      </c>
-      <c r="E2" s="4">
-        <v>43061</v>
-      </c>
-      <c r="F2" s="4">
-        <v>43068</v>
-      </c>
-      <c r="G2" s="4">
-        <v>43075</v>
-      </c>
-      <c r="H2" s="4">
-        <v>43082</v>
-      </c>
-      <c r="I2" s="4">
-        <v>43089</v>
-      </c>
-      <c r="J2" s="4">
-        <v>43096</v>
+      <c r="D2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="60">
@@ -813,13 +844,13 @@
         <v>13</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>8</v>
@@ -829,11 +860,11 @@
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="120.75">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="18" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="13"/>
@@ -841,36 +872,36 @@
         <v>14</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="G4" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="H4" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>32</v>
-      </c>
       <c r="J4" s="13"/>
     </row>
     <row r="5" spans="1:10" ht="51.75">
-      <c r="A5" s="18"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="13"/>
       <c r="C5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="20" t="s">
-        <v>24</v>
+      <c r="D5" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
@@ -879,7 +910,7 @@
       <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:10" ht="17.25">
-      <c r="A6" s="19"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -892,17 +923,22 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="15" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="21" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="8"/>

--- a/Docs/Roadmap.xlsx
+++ b/Docs/Roadmap.xlsx
@@ -258,14 +258,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -399,7 +399,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -416,9 +416,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -431,15 +428,16 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -451,7 +449,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="TableStyleLight1" xfId="1"/>
@@ -750,7 +747,7 @@
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -837,29 +834,29 @@
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6" t="s">
+      <c r="I3" s="17"/>
+      <c r="J3" s="17" t="s">
         <v>19</v>
       </c>
     </row>
@@ -867,288 +864,288 @@
       <c r="A4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="16" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="13"/>
+      <c r="J4" s="16"/>
     </row>
     <row r="5" spans="1:10" ht="51.75">
       <c r="A5" s="19"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="16" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
     </row>
     <row r="6" spans="1:10" ht="17.25">
       <c r="A6" s="20"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="12" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="10"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Docs/Roadmap.xlsx
+++ b/Docs/Roadmap.xlsx
@@ -105,9 +105,6 @@
     <t>Полноценная админка(редактирование списка пользователей и карточек книг)</t>
   </si>
   <si>
-    <t>Пользователи могут писать друг другу сообщения, исправления замечаний и доделывание того, что не успел</t>
-  </si>
-  <si>
     <t>исправления замечаний и доделывание того, что не успел</t>
   </si>
   <si>
@@ -139,6 +136,9 @@
   </si>
   <si>
     <t>25.12-31.12</t>
+  </si>
+  <si>
+    <t>Пользователь может добавить книгу</t>
   </si>
 </sst>
 </file>
@@ -747,7 +747,7 @@
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -809,25 +809,25 @@
         <v>43047</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="60">
@@ -843,7 +843,7 @@
       <c r="D3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F3" s="17" t="s">
@@ -860,7 +860,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="120.75">
+    <row r="4" spans="1:10" ht="103.5">
       <c r="A4" s="18" t="s">
         <v>5</v>
       </c>
@@ -871,7 +871,7 @@
       <c r="D4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F4" s="16" t="s">
@@ -881,10 +881,10 @@
         <v>28</v>
       </c>
       <c r="H4" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="16" t="s">
         <v>29</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>30</v>
       </c>
       <c r="J4" s="16"/>
     </row>
@@ -897,7 +897,7 @@
       <c r="D5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F5" s="16"/>
@@ -911,7 +911,7 @@
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
-      <c r="E6" s="16"/>
+      <c r="E6" s="14"/>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
@@ -920,12 +920,12 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -934,7 +934,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:13">
